--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value754.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value754.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9405284677433515</v>
+        <v>0.999898374080658</v>
       </c>
       <c r="B1">
-        <v>2.151744983867951</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>5.069106204848702</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.448199790214597</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.279569232760298</v>
+        <v>1.218034029006958</v>
       </c>
     </row>
   </sheetData>
